--- a/data/trans_dic/P20_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido menos unido/a con el resto de la sociedad</t>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>59,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>57,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>54,85%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,15; 51,39</t>
+          <t>35,05; 59,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,16; 51,33</t>
+          <t>36,54; 59,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,0; 44,76</t>
+          <t>55,9; 73,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,59; 48,51</t>
+          <t>50,72; 68,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,98; 45,43</t>
+          <t>48,82; 64,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,61; 47,34</t>
+          <t>47,04; 61,35</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>60,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>67,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>60,26%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,73; 38,71</t>
+          <t>58,11; 71,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,81; 44,0</t>
+          <t>54,66; 66,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,4; 34,04</t>
+          <t>63,23; 73,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,31; 43,92</t>
+          <t>54,71; 65,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 35,08</t>
+          <t>61,88; 70,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 42,83</t>
+          <t>56,21; 64,25</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>66,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>60,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>69,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>56,5%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,45; 39,16</t>
+          <t>60,02; 73,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,0; 52,58</t>
+          <t>46,12; 59,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,19; 35,46</t>
+          <t>65,95; 77,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,21; 46,14</t>
+          <t>54,69; 65,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,9; 35,42</t>
+          <t>64,4; 73,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,5; 48,46</t>
+          <t>52,58; 61,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>63,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>55,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>63,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>57,01%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,24; 38,84</t>
+          <t>59,35; 66,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,98; 46,01</t>
+          <t>49,69; 60,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,12; 34,81</t>
+          <t>60,8; 67,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,53; 43,2</t>
+          <t>54,41; 63,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,27; 36,21</t>
+          <t>61,25; 66,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,47; 43,81</t>
+          <t>53,55; 60,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>55,71%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>66,53%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>57,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60,18; 66,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52,38; 58,99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63,98; 68,92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>56,64; 62,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>63,07; 66,82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55,36; 59,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>107994</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>161293</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>170615</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>226977</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>278610</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>388270</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>79385; 135168</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>118495; 191792</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>146277; 193251</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>194584; 261900</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>238308; 314695</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>333024; 434257</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>427879</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>558688</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>490827</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>593431</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>918707</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1152119</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>378221; 465478</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>504161; 613455</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>452123; 527041</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>541337; 647074</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>845284; 968716</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1074679; 1228298</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>304701</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>376800</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>381599</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>450767</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>686301</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>827567</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>273511; 335888</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>330043; 422264</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>350645; 409906</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>409690; 490980</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>635830; 726994</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>770123; 897877</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>509.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1111.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1339208</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>779993</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1350730</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>788033</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2689938</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1568025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1254811; 1414065</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>698942; 846864</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1270516; 1410391</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>731119; 851372</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2575024; 2792522</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1472747; 1663240</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>863.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>632.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>781.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1933.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1413.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2179783</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1876774</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2393773</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2059207</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4573555</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3935981</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2074641; 2276693</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1764550; 1987094</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2302167; 2479858</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1963134; 2154132</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4443661; 4707743</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3783652; 4078576</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>